--- a/data/in/wc_goals_women.xlsx
+++ b/data/in/wc_goals_women.xlsx
@@ -13312,7 +13312,7 @@
         <v>0</v>
       </c>
       <c r="U139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V139" t="s">
         <v>801</v>
@@ -13738,7 +13738,7 @@
         <v>0</v>
       </c>
       <c r="U145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V145" t="s">
         <v>802</v>
@@ -14300,7 +14300,7 @@
         <v>1</v>
       </c>
       <c r="U153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V153" t="s">
         <v>802</v>
@@ -15146,7 +15146,7 @@
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V165" t="s">
         <v>804</v>
@@ -17187,7 +17187,7 @@
         <v>3</v>
       </c>
       <c r="U194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V194" t="s">
         <v>803</v>
@@ -17542,7 +17542,7 @@
         <v>2</v>
       </c>
       <c r="U199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V199" t="s">
         <v>804</v>
@@ -17613,7 +17613,7 @@
         <v>4</v>
       </c>
       <c r="U200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V200" t="s">
         <v>804</v>
@@ -17897,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="U204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V204" t="s">
         <v>804</v>
@@ -18923,7 +18923,7 @@
         <v>3</v>
       </c>
       <c r="U219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V219" t="s">
         <v>805</v>
@@ -21691,7 +21691,7 @@
         <v>1</v>
       </c>
       <c r="U259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V259" t="s">
         <v>809</v>
@@ -22608,7 +22608,7 @@
         <v>2</v>
       </c>
       <c r="U272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V272" t="s">
         <v>811</v>
@@ -23312,7 +23312,7 @@
         <v>4</v>
       </c>
       <c r="U282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V282" t="s">
         <v>812</v>
@@ -24720,7 +24720,7 @@
         <v>0</v>
       </c>
       <c r="U302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V302" t="s">
         <v>813</v>
@@ -25217,7 +25217,7 @@
         <v>1</v>
       </c>
       <c r="U309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V309" t="s">
         <v>814</v>
@@ -26631,7 +26631,7 @@
         <v>1</v>
       </c>
       <c r="U329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V329" t="s">
         <v>813</v>
@@ -26702,7 +26702,7 @@
         <v>2</v>
       </c>
       <c r="U330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V330" t="s">
         <v>813</v>
@@ -27749,7 +27749,7 @@
         <v>1</v>
       </c>
       <c r="U345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V345" t="s">
         <v>815</v>
@@ -32635,7 +32635,7 @@
         <v>0</v>
       </c>
       <c r="U415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V415" t="s">
         <v>824</v>
@@ -32706,7 +32706,7 @@
         <v>2</v>
       </c>
       <c r="U416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V416" t="s">
         <v>824</v>
@@ -33061,7 +33061,7 @@
         <v>2</v>
       </c>
       <c r="U421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V421" t="s">
         <v>819</v>
@@ -34960,7 +34960,7 @@
         <v>2</v>
       </c>
       <c r="U448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V448" t="s">
         <v>824</v>
@@ -37338,7 +37338,7 @@
         <v>1</v>
       </c>
       <c r="U482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V482" t="s">
         <v>827</v>
@@ -37409,7 +37409,7 @@
         <v>3</v>
       </c>
       <c r="U483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V483" t="s">
         <v>827</v>
@@ -38616,7 +38616,7 @@
         <v>1</v>
       </c>
       <c r="U500">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V500" t="s">
         <v>830</v>
@@ -39036,7 +39036,7 @@
         <v>5</v>
       </c>
       <c r="U506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V506" t="s">
         <v>831</v>
@@ -39314,7 +39314,7 @@
         <v>1</v>
       </c>
       <c r="U510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V510" t="s">
         <v>832</v>
@@ -40077,7 +40077,7 @@
         <v>0</v>
       </c>
       <c r="U521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V521" t="s">
         <v>833</v>
@@ -43177,7 +43177,7 @@
         <v>2</v>
       </c>
       <c r="U565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V565" t="s">
         <v>837</v>
@@ -43668,7 +43668,7 @@
         <v>3</v>
       </c>
       <c r="U572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V572" t="s">
         <v>835</v>
@@ -44928,7 +44928,7 @@
         <v>1</v>
       </c>
       <c r="U590">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V590" t="s">
         <v>837</v>
@@ -49796,7 +49796,7 @@
         <v>0</v>
       </c>
       <c r="U660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V660" t="s">
         <v>845</v>
@@ -49867,7 +49867,7 @@
         <v>4</v>
       </c>
       <c r="U661">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V661" t="s">
         <v>845</v>
@@ -52292,7 +52292,7 @@
         <v>3</v>
       </c>
       <c r="U696">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V696" t="s">
         <v>850</v>
@@ -54475,7 +54475,7 @@
         <v>2</v>
       </c>
       <c r="U727">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V727" t="s">
         <v>858</v>
@@ -54747,7 +54747,7 @@
         <v>1</v>
       </c>
       <c r="U731">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V731" t="s">
         <v>859</v>
@@ -57906,7 +57906,7 @@
         <v>4</v>
       </c>
       <c r="U776">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V776" t="s">
         <v>862</v>
@@ -59243,7 +59243,7 @@
         <v>0</v>
       </c>
       <c r="U795">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V795" t="s">
         <v>863</v>
@@ -62520,7 +62520,7 @@
         <v>3</v>
       </c>
       <c r="U842">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V842" t="s">
         <v>866</v>
@@ -62733,7 +62733,7 @@
         <v>1</v>
       </c>
       <c r="U845">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V845" t="s">
         <v>866</v>
@@ -63366,7 +63366,7 @@
         <v>4</v>
       </c>
       <c r="U854">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V854" t="s">
         <v>867</v>
@@ -65040,7 +65040,7 @@
         <v>2</v>
       </c>
       <c r="U878">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V878" t="s">
         <v>871</v>
@@ -66016,7 +66016,7 @@
         <v>2</v>
       </c>
       <c r="U892">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V892" t="s">
         <v>875</v>
@@ -69500,7 +69500,7 @@
         <v>5</v>
       </c>
       <c r="U942">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V942" t="s">
         <v>883</v>
@@ -72369,7 +72369,7 @@
         <v>4</v>
       </c>
       <c r="U983">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V983" t="s">
         <v>887</v>
@@ -72641,7 +72641,7 @@
         <v>2</v>
       </c>
       <c r="U987">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V987" t="s">
         <v>888</v>
@@ -73487,7 +73487,7 @@
         <v>5</v>
       </c>
       <c r="U999">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V999" t="s">
         <v>890</v>
@@ -73765,7 +73765,7 @@
         <v>4</v>
       </c>
       <c r="U1003">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1003" t="s">
         <v>888</v>
@@ -74688,7 +74688,7 @@
         <v>2</v>
       </c>
       <c r="U1016">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1016" t="s">
         <v>888</v>
@@ -75108,7 +75108,7 @@
         <v>6</v>
       </c>
       <c r="U1022">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1022" t="s">
         <v>891</v>
@@ -75179,7 +75179,7 @@
         <v>1</v>
       </c>
       <c r="U1023">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1023" t="s">
         <v>891</v>
@@ -77480,7 +77480,7 @@
         <v>0</v>
       </c>
       <c r="U1056">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1056" t="s">
         <v>895</v>
@@ -80174,7 +80174,7 @@
         <v>5</v>
       </c>
       <c r="U1095">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1095" t="s">
         <v>906</v>
@@ -81073,7 +81073,7 @@
         <v>10</v>
       </c>
       <c r="U1108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1108" t="s">
         <v>908</v>
@@ -81635,7 +81635,7 @@
         <v>4</v>
       </c>
       <c r="U1116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1116" t="s">
         <v>909</v>
@@ -82463,7 +82463,7 @@
         <v>11</v>
       </c>
       <c r="U1128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1128" t="s">
         <v>910</v>
@@ -83693,7 +83693,7 @@
         <v>3</v>
       </c>
       <c r="U1146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1146" t="s">
         <v>909</v>
@@ -83894,7 +83894,7 @@
         <v>0</v>
       </c>
       <c r="U1149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1149" t="s">
         <v>910</v>
@@ -84926,7 +84926,7 @@
         <v>10</v>
       </c>
       <c r="U1164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1164" t="s">
         <v>912</v>
@@ -87812,7 +87812,7 @@
         <v>10</v>
       </c>
       <c r="U1206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1206" t="s">
         <v>916</v>
@@ -88084,7 +88084,7 @@
         <v>0</v>
       </c>
       <c r="U1210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1210" t="s">
         <v>913</v>
@@ -88930,7 +88930,7 @@
         <v>5</v>
       </c>
       <c r="U1222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1222" t="s">
         <v>915</v>
@@ -89202,7 +89202,7 @@
         <v>0</v>
       </c>
       <c r="U1226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1226" t="s">
         <v>916</v>
@@ -89415,7 +89415,7 @@
         <v>2</v>
       </c>
       <c r="U1229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1229" t="s">
         <v>916</v>
@@ -89983,7 +89983,7 @@
         <v>0</v>
       </c>
       <c r="U1237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1237" t="s">
         <v>914</v>
@@ -90604,7 +90604,7 @@
         <v>7</v>
       </c>
       <c r="U1246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1246" t="s">
         <v>906</v>
@@ -92964,7 +92964,7 @@
         <v>1</v>
       </c>
       <c r="U1280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1280" t="s">
         <v>922</v>
